--- a/Sudoku Game_Carter McCall_Personal/Low Expectations Scrum Project (Carter, Hosea, Isaiah) (1).xlsx
+++ b/Sudoku Game_Carter McCall_Personal/Low Expectations Scrum Project (Carter, Hosea, Isaiah) (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps_mu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d924908dd83d97b/Desktop/Classes/CSC1060/Unzipped/Sudoku Game_Carter McCall_Personal/Sudoku Game_Carter McCall_Personal/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8345835-35B1-4472-BBF3-642CCB9661B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{5969DE55-CD1B-4C6F-87B5-39DBF0EA983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4BDE91-026E-42C1-9643-D39E9BFB7C68}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DDC301-48E9-474C-9B8D-1FA90964021A}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="102" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -3017,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F7190-C596-42CC-8496-9A58A8133598}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51155316-38BB-46D3-AE3F-BA55423B0250}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
